--- a/QHE/Data-Plots/ermittelte N_S-Werte.xlsx
+++ b/QHE/Data-Plots/ermittelte N_S-Werte.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>T</t>
   </si>
@@ -28,6 +28,60 @@
   </si>
   <si>
     <t>1.756*10^-11</t>
+  </si>
+  <si>
+    <t>B1-</t>
+  </si>
+  <si>
+    <t>B2+</t>
+  </si>
+  <si>
+    <t>B2-</t>
+  </si>
+  <si>
+    <t>B3+</t>
+  </si>
+  <si>
+    <t>B3-</t>
+  </si>
+  <si>
+    <t>B4+</t>
+  </si>
+  <si>
+    <t>B4-</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>0.136579</t>
+  </si>
+  <si>
+    <t>0.1253435</t>
+  </si>
+  <si>
+    <t>0.64051574</t>
+  </si>
+  <si>
+    <t>0.07965045</t>
+  </si>
+  <si>
+    <t>unten links</t>
+  </si>
+  <si>
+    <t>unten rechts</t>
+  </si>
+  <si>
+    <t>oben links</t>
+  </si>
+  <si>
+    <t>oben rechts</t>
   </si>
 </sst>
 </file>
@@ -366,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +534,184 @@
       </c>
       <c r="C12" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.117895</v>
+      </c>
+      <c r="C16">
+        <v>207990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.18567700000000001</v>
+      </c>
+      <c r="C17">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.23563300000000001</v>
+      </c>
+      <c r="C18">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.32225599999999999</v>
+      </c>
+      <c r="C19">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.36858200000000002</v>
+      </c>
+      <c r="C20">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.464694</v>
+      </c>
+      <c r="C21">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.48097800000000002</v>
+      </c>
+      <c r="C22">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>F26-E26</f>
+        <v>8.1318400000000013E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>7.9041600000000004E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.16036</v>
+      </c>
+      <c r="F26">
+        <f>E26*2-D26</f>
+        <v>0.24167840000000002</v>
+      </c>
+      <c r="H26">
+        <f>2*I26-J26</f>
+        <v>0.48058000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.56020999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.63983999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3.9018999999999999</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f>E28*2-D28</f>
+        <v>4.0981000000000005</v>
+      </c>
+      <c r="H28">
+        <f>2*I28-J28</f>
+        <v>3.9256799999999998</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>4.0743200000000002</v>
       </c>
     </row>
   </sheetData>

--- a/QHE/Data-Plots/ermittelte N_S-Werte.xlsx
+++ b/QHE/Data-Plots/ermittelte N_S-Werte.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>T</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>oben rechts</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>gew</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>rel Fehler</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            3,52(20)     3,378(70)     3,517(79)     3,47(12)\\</t>
+  </si>
+  <si>
+    <t>3,0     3,61(20)     3,387(81)     3,517(79)     3,50(12)\\</t>
+  </si>
+  <si>
+    <t>2,1     3,58(20)     3,330(76)     3,517(79)     3,45(12)\\</t>
+  </si>
+  <si>
+    <t>1,5     2,58(20)     3,341(84)     3,517(79)     3,15(12)\\</t>
   </si>
 </sst>
 </file>
@@ -420,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,8 +741,106 @@
         <v>4.0743200000000002</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.4020000000000002E-2</v>
+      </c>
+      <c r="B31">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C31">
+        <f>1/B31</f>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="E31">
+        <f>(A31*C31+A32*C32)/C33</f>
+        <v>3.1872619047619052E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="B32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C32">
+        <f>1/B32</f>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="E32">
+        <f>(SQRT(B31*C31)^2+(B32*C32)^2)/C33</f>
+        <v>7.595238095238095E-3</v>
+      </c>
+      <c r="G32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>C32+C31</f>
+        <v>263.32288401253919</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>E32/E31</f>
+        <v>0.23829977962873039</v>
+      </c>
+      <c r="G34">
+        <f>G32/G31</f>
+        <v>0.27499999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>SQRT(E34^2+G34^2)</f>
+        <v>0.36388430162773094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
